--- a/Amet_data.xlsx
+++ b/Amet_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15160" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="paintingsData" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="116">
   <si>
     <t>title</t>
   </si>
@@ -73,9 +73,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>sold</t>
   </si>
   <si>
@@ -341,6 +338,45 @@
   </si>
   <si>
     <t>reservedDate</t>
+  </si>
+  <si>
+    <t>The Crown is mine (I)</t>
+  </si>
+  <si>
+    <t>./images/paintings_available/amet-crown_is_mine_I.png</t>
+  </si>
+  <si>
+    <t>acrylic/canvas</t>
+  </si>
+  <si>
+    <t>The Crown is mine (II)</t>
+  </si>
+  <si>
+    <t>./images/paintings_available/amet-crown_is_mine_II.png</t>
+  </si>
+  <si>
+    <t>Fighting back</t>
+  </si>
+  <si>
+    <t>./images/paintings_available/amet-fighting_back.png</t>
+  </si>
+  <si>
+    <t>Immigrant</t>
+  </si>
+  <si>
+    <t>./images/paintings_available/amet-immigrant.png</t>
+  </si>
+  <si>
+    <t>Welcome to paradise</t>
+  </si>
+  <si>
+    <t>./images/paintings_available/amet-welcome_to_paradise.png</t>
+  </si>
+  <si>
+    <t>Who's right?</t>
+  </si>
+  <si>
+    <t>./images/paintings_available/amet-whos_right.png</t>
   </si>
 </sst>
 </file>
@@ -349,10 +385,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="dd\-mm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -387,6 +423,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -409,7 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -448,16 +489,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -469,7 +510,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -478,6 +519,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -756,20 +798,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="E10" zoomScale="143" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="10" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="10" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="36.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="48" style="10" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="20" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="17" customWidth="1"/>
     <col min="9" max="9" width="7.5" style="9" customWidth="1"/>
@@ -782,7 +824,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -800,25 +842,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -826,35 +868,35 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11">
         <v>500</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="19">
         <v>2018</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="21">
         <v>44990</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" s="23">
         <v>1678765408256</v>
@@ -877,21 +919,21 @@
         <v>600</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="19">
         <v>2017</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -899,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>6</v>
@@ -911,21 +953,21 @@
         <v>1000</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="19">
         <v>2017</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -933,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>7</v>
@@ -945,21 +987,21 @@
         <v>250</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="19">
         <v>2016</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" s="23">
         <v>1678765408280</v>
@@ -970,19 +1012,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="11">
         <v>300</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="20">
         <v>2015</v>
@@ -991,10 +1033,10 @@
         <v>43465</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1002,19 +1044,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="11">
         <v>250</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="20">
         <v>2014</v>
@@ -1023,10 +1065,10 @@
         <v>43465</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1034,19 +1076,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="11">
         <v>400</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="20">
         <v>2014</v>
@@ -1055,10 +1097,10 @@
         <v>43465</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1066,19 +1108,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="11">
         <v>500</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="20">
         <v>2014</v>
@@ -1087,10 +1129,10 @@
         <v>43465</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1098,19 +1140,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="11">
         <v>400</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="20">
         <v>2015</v>
@@ -1119,10 +1161,10 @@
         <v>43465</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1130,19 +1172,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="11">
         <v>400</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" s="20">
         <v>2015</v>
@@ -1151,10 +1193,10 @@
         <v>43465</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1162,19 +1204,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="11">
         <v>400</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="20">
         <v>2015</v>
@@ -1183,10 +1225,10 @@
         <v>43465</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1194,19 +1236,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="11">
         <v>400</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="20">
         <v>2015</v>
@@ -1215,10 +1257,10 @@
         <v>43465</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1226,19 +1268,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="11">
         <v>250</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="20">
         <v>2015</v>
@@ -1247,10 +1289,10 @@
         <v>43465</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1258,19 +1300,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="11">
         <v>250</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="20">
         <v>2016</v>
@@ -1279,10 +1321,10 @@
         <v>43465</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1290,19 +1332,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="11">
         <v>250</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="20">
         <v>2016</v>
@@ -1311,10 +1353,10 @@
         <v>43465</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1322,19 +1364,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="11">
         <v>600</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="20">
         <v>2017</v>
@@ -1343,10 +1385,10 @@
         <v>43465</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1354,19 +1396,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="11">
         <v>600</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="20">
         <v>2017</v>
@@ -1375,10 +1417,10 @@
         <v>43465</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1386,19 +1428,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="11">
         <v>600</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="20">
         <v>2017</v>
@@ -1407,10 +1449,10 @@
         <v>43465</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1418,19 +1460,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="11">
         <v>600</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="20">
         <v>2017</v>
@@ -1439,10 +1481,10 @@
         <v>43465</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1450,19 +1492,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="11">
         <v>600</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" s="20">
         <v>2017</v>
@@ -1471,10 +1513,202 @@
         <v>43465</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="11">
+        <v>400</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="20">
+        <v>2020</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="11">
+        <v>500</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="20">
+        <v>2020</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="11">
+        <v>600</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="20">
+        <v>2021</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="11">
+        <v>200</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="20">
+        <v>2021</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="11">
+        <v>300</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="20">
+        <v>2022</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="11">
+        <v>400</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="20">
+        <v>2022</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1738,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>13</v>
@@ -1513,19 +1747,19 @@
         <v>12</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>101</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -1533,22 +1767,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="16">
         <v>31626117235</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="23">
         <v>1678765408256</v>
@@ -1559,22 +1793,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="16">
         <v>73430434176</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="23">
         <v>1678765408280</v>
@@ -1593,7 +1827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1609,7 +1845,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>13</v>
@@ -1618,16 +1854,16 @@
         <v>12</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1635,22 +1871,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="16">
         <v>31626117235</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -1658,22 +1894,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="16">
         <v>73430434176</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Amet_data.xlsx
+++ b/Amet_data.xlsx
@@ -1723,7 +1723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1843,6 +1843,78 @@
       </c>
       <c r="H3" t="n">
         <v>1678765408280</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Erneto</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Socio</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ven</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Beautiful work. I love it</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alberto</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>El Miloitar</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>kuva5008@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>31626117235</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ven</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Beautiful work. I love it</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3333333333</v>
       </c>
     </row>
   </sheetData>
